--- a/辅助总表/奖励配置辅助表/挖矿奖励辅助表.xlsx
+++ b/辅助总表/奖励配置辅助表/挖矿奖励辅助表.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="236">
   <si>
     <t>ID</t>
   </si>
@@ -905,10 +905,6 @@
     <rPh sb="2" eb="3">
       <t>xu'hao</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备强化矿石1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1299,7 +1295,7 @@
   <dimension ref="A1:F976"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1422,7 +1418,7 @@
       </c>
       <c r="D6" s="3" t="str">
         <f>VLOOKUP(A6,奖励测试!A:D,4,FALSE)</f>
-        <v>[{"g":100,"i":[{"t":"i","i":26001,"c":1,"tr":0}]},{"g":38,"i":[{"t":"i","i":26002,"c":2,"tr":0}]},{"g":10,"i":[{"t":"i","i":26003,"c":3,"tr":0}]}]</v>
+        <v>[{"g":100,"i":[{"t":"i","i":26003,"c":1,"tr":0}]},{"g":38,"i":[{"t":"i","i":26003,"c":2,"tr":0}]},{"g":10,"i":[{"t":"i","i":26003,"c":3,"tr":0}]}]</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -9194,6 +9190,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -9795,7 +9792,7 @@
       </c>
       <c r="D6" s="3" t="str">
         <f>"["&amp;G6&amp;H6&amp;I6&amp;J6&amp;K6&amp;L6&amp;M6&amp;N6&amp;O6&amp;P6&amp;Q6&amp;R6&amp;S6&amp;T6&amp;U6&amp;V6&amp;W6&amp;X6&amp;Y6&amp;Z6&amp;AA6&amp;AB6&amp;AC6&amp;AD6&amp;AE6&amp;AF6&amp;AG6&amp;AH6&amp;AI6&amp;AJ6&amp;AK6&amp;AL6&amp;AM6&amp;AN6&amp;AO6&amp;AP6&amp;AQ6&amp;AR6&amp;AS6&amp;AT6&amp;AU6&amp;AV6&amp;AW6&amp;AX6&amp;AY6&amp;AZ6&amp;"]"</f>
-        <v>[{"g":100,"i":[{"t":"i","i":26001,"c":1,"tr":0}]},{"g":38,"i":[{"t":"i","i":26002,"c":2,"tr":0}]},{"g":10,"i":[{"t":"i","i":26003,"c":3,"tr":0}]}]</v>
+        <v>[{"g":100,"i":[{"t":"i","i":26003,"c":1,"tr":0}]},{"g":38,"i":[{"t":"i","i":26003,"c":2,"tr":0}]},{"g":10,"i":[{"t":"i","i":26003,"c":3,"tr":0}]}]</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -9805,11 +9802,11 @@
       </c>
       <c r="G6" t="str">
         <f>_xlfn.IFNA(VLOOKUP($A6*1000+G$3,奖励辅助!$B:$L,11,FALSE),"")</f>
-        <v>{"g":100,"i":[{"t":"i","i":26001,"c":1,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"i","i":26003,"c":1,"tr":0}]}</v>
       </c>
       <c r="H6" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+H$3,奖励辅助!$B:$L,11,FALSE),"")</f>
-        <v>,{"g":38,"i":[{"t":"i","i":26002,"c":2,"tr":0}]}</v>
+        <v>,{"g":38,"i":[{"t":"i","i":26003,"c":2,"tr":0}]}</v>
       </c>
       <c r="I6" t="str">
         <f>_xlfn.IFNA(","&amp;VLOOKUP($A6*1000+I$3,奖励辅助!$B:$L,11,FALSE),"")</f>
@@ -9941,7 +9938,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -10694,7 +10691,7 @@
       </c>
       <c r="I23" t="str">
         <f>N23&amp;O23&amp;P23&amp;Q23</f>
-        <v>{"t":"i","i":26001,"c":1,"tr":0}</v>
+        <v>{"t":"i","i":26003,"c":1,"tr":0}</v>
       </c>
       <c r="K23" t="str">
         <f>IF(H23="","",K$6)</f>
@@ -10702,11 +10699,11 @@
       </c>
       <c r="L23" t="str">
         <f>H23&amp;I23&amp;J23&amp;K23</f>
-        <v>{"g":100,"i":[{"t":"i","i":26001,"c":1,"tr":0}]}</v>
+        <v>{"g":100,"i":[{"t":"i","i":26003,"c":1,"tr":0}]}</v>
       </c>
       <c r="N23" t="str">
         <f>_xlfn.IFNA(IF(M23="",VLOOKUP($B23*100+N$4,工作表1!$D:$O,工作表1!$O$1,FALSE),","&amp;VLOOKUP($B23*100+N$4,工作表1!$D:$O,工作表1!$O$1,FALSE)),"")</f>
-        <v>{"t":"i","i":26001,"c":1,"tr":0}</v>
+        <v>{"t":"i","i":26003,"c":1,"tr":0}</v>
       </c>
       <c r="O23" t="str">
         <f>_xlfn.IFNA(IF(N23="",VLOOKUP($B23*100+O$4,工作表1!$D:$O,工作表1!$O$1,FALSE),","&amp;VLOOKUP($B23*100+O$4,工作表1!$D:$O,工作表1!$O$1,FALSE)),"")</f>
@@ -10749,7 +10746,7 @@
       </c>
       <c r="I24" t="str">
         <f t="shared" ref="I24:I26" si="12">N24&amp;O24&amp;P24&amp;Q24</f>
-        <v>{"t":"i","i":26002,"c":2,"tr":0}</v>
+        <v>{"t":"i","i":26003,"c":2,"tr":0}</v>
       </c>
       <c r="K24" t="str">
         <f>IF(H24="","",K$6)</f>
@@ -10757,11 +10754,11 @@
       </c>
       <c r="L24" t="str">
         <f>H24&amp;I24&amp;J24&amp;K24</f>
-        <v>{"g":38,"i":[{"t":"i","i":26002,"c":2,"tr":0}]}</v>
+        <v>{"g":38,"i":[{"t":"i","i":26003,"c":2,"tr":0}]}</v>
       </c>
       <c r="N24" t="str">
         <f>_xlfn.IFNA(IF(M24="",VLOOKUP($B24*100+N$4,工作表1!$D:$O,工作表1!$O$1,FALSE),","&amp;VLOOKUP($B24*100+N$4,工作表1!$D:$O,工作表1!$O$1,FALSE)),"")</f>
-        <v>{"t":"i","i":26002,"c":2,"tr":0}</v>
+        <v>{"t":"i","i":26003,"c":2,"tr":0}</v>
       </c>
       <c r="O24" t="str">
         <f>_xlfn.IFNA(IF(N24="",VLOOKUP($B24*100+O$4,工作表1!$D:$O,工作表1!$O$1,FALSE),","&amp;VLOOKUP($B24*100+O$4,工作表1!$D:$O,工作表1!$O$1,FALSE)),"")</f>
@@ -10859,7 +10856,7 @@
   <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -10933,10 +10930,10 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" t="s">
         <v>235</v>
-      </c>
-      <c r="B7" t="s">
-        <v>236</v>
       </c>
       <c r="C7" t="s">
         <v>226</v>
@@ -10954,7 +10951,7 @@
         <v>232</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>93</v>
@@ -11480,14 +11477,14 @@
         <v>100</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="J23" s="5">
         <v>1</v>
       </c>
       <c r="L23" t="str">
         <f>L$6&amp;VLOOKUP(I23,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":26001</v>
+        <v>{"t":"i","i":26003</v>
       </c>
       <c r="M23" t="str">
         <f t="shared" ref="M23" si="7">M$5&amp;J23&amp;M$6</f>
@@ -11499,7 +11496,7 @@
       </c>
       <c r="O23" t="str">
         <f t="shared" ref="O23" si="9">K23&amp;L23&amp;M23&amp;N23</f>
-        <v>{"t":"i","i":26001,"c":1,"tr":0}</v>
+        <v>{"t":"i","i":26003,"c":1,"tr":0}</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
@@ -11532,14 +11529,14 @@
         <v>38</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J24" s="5">
         <v>2</v>
       </c>
       <c r="L24" t="str">
         <f>L$6&amp;VLOOKUP(I24,物品!B:C,2,FALSE)</f>
-        <v>{"t":"i","i":26002</v>
+        <v>{"t":"i","i":26003</v>
       </c>
       <c r="M24" t="str">
         <f>M$5&amp;J24&amp;M$6</f>
@@ -11551,7 +11548,7 @@
       </c>
       <c r="O24" t="str">
         <f>K24&amp;L24&amp;M24&amp;N24</f>
-        <v>{"t":"i","i":26002,"c":2,"tr":0}</v>
+        <v>{"t":"i","i":26003,"c":2,"tr":0}</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
